--- a/results/mp/tinybert/corona/confidence/210/0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,57 +40,42 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>forced</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -103,199 +88,232 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>creative</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>good</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>clear</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>join</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>increased</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>store</t>
+    <t>!</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -653,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -743,16 +761,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -772,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -790,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -822,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -872,37 +890,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7647058823529411</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -922,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.76</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C8">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.96875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1022,13 +1040,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,31 +1058,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L9">
-        <v>23</v>
-      </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5333333333333333</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1140,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.375</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1190,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3703703703703703</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1214,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,13 +1240,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.369098712446352</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C13">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1240,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1264,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,13 +1290,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3571428571428572</v>
+        <v>0.1275167785234899</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1290,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8571428571428571</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1314,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1322,13 +1340,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2413793103448276</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1340,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.8518518518518519</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1364,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2093023255813954</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>68</v>
+        <v>339</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.8518518518518519</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1414,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,313 +1440,193 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1842105263157895</v>
+        <v>0.03494623655913978</v>
       </c>
       <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>359</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L17">
+        <v>47</v>
+      </c>
+      <c r="M17">
+        <v>47</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.8046875</v>
+      </c>
+      <c r="L18">
+        <v>103</v>
+      </c>
+      <c r="M18">
+        <v>103</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L19">
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <v>31</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L20">
+        <v>65</v>
+      </c>
+      <c r="M20">
+        <v>65</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L21">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>22</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>31</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L17">
-        <v>43</v>
-      </c>
-      <c r="M17">
-        <v>43</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.175</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <v>10</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.175</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>33</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>94</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L20">
-        <v>41</v>
-      </c>
-      <c r="M20">
-        <v>41</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>123</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L21">
-        <v>7</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.03763440860215054</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>179</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.7647058823529411</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1766,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.7307692307692307</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1792,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.7241379310344828</v>
+        <v>0.70625</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1818,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.717948717948718</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1844,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.7083333333333334</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1870,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.6986301369863014</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1896,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.6923076923076923</v>
+        <v>0.64</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1922,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.68</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1948,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.6551724137931034</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1974,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.6470588235294118</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2000,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.631578947368421</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2026,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2052,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.6060606060606061</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2078,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2104,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2130,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2156,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5666666666666667</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2182,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.5633802816901409</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L41">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2208,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.5454545454545454</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L42">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2234,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.5384615384615384</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2260,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.5384615384615384</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2286,21 +2184,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.5384615384615384</v>
+        <v>0.4</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2312,21 +2210,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.5069444444444444</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L46">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2338,21 +2236,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2364,21 +2262,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.45</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L48">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="M48">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2390,21 +2288,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.4418604651162791</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L49">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2416,21 +2314,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.4285714285714285</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L50">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2442,21 +2340,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.4</v>
+        <v>0.34375</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2468,21 +2366,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.391304347826087</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L52">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M52">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2494,21 +2392,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K53">
-        <v>0.375</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2520,21 +2418,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K54">
-        <v>0.3684210526315789</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2546,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K55">
-        <v>0.36</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="L55">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2572,21 +2470,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K56">
-        <v>0.3513513513513514</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2598,21 +2496,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K57">
-        <v>0.3125</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="L57">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2624,21 +2522,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K58">
-        <v>0.1296296296296296</v>
+        <v>0.03588516746411483</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2650,21 +2548,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>47</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K59">
-        <v>0.0505050505050505</v>
+        <v>0.03588516746411483</v>
       </c>
       <c r="L59">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2676,47 +2574,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>188</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K60">
-        <v>0.0253968253968254</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="L60">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>307</v>
+        <v>530</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K61">
-        <v>0.02195121951219512</v>
+        <v>0.02796420581655481</v>
       </c>
       <c r="L61">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2728,99 +2626,99 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>401</v>
+        <v>869</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K62">
-        <v>0.02192982456140351</v>
+        <v>0.02619414483821263</v>
       </c>
       <c r="L62">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>446</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K63">
-        <v>0.009163802978235968</v>
+        <v>0.02434077079107505</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>1730</v>
+        <v>962</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K64">
-        <v>0.008928571428571428</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="L64">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N64">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>1110</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K65">
-        <v>0.008620689655172414</v>
+        <v>0.02330743618201998</v>
       </c>
       <c r="L65">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M65">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2832,59 +2730,345 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>920</v>
+        <v>880</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K66">
-        <v>0.00835509138381201</v>
+        <v>0.01802539942646456</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1899</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K67">
+        <v>0.01688311688311688</v>
+      </c>
+      <c r="L67">
+        <v>13</v>
+      </c>
+      <c r="M67">
+        <v>13</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K68">
+        <v>0.01493233784414372</v>
+      </c>
+      <c r="L68">
+        <v>32</v>
+      </c>
+      <c r="M68">
+        <v>32</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K69">
+        <v>0.01461769115442279</v>
+      </c>
+      <c r="L69">
+        <v>39</v>
+      </c>
+      <c r="M69">
+        <v>44</v>
+      </c>
+      <c r="N69">
+        <v>0.89</v>
+      </c>
+      <c r="O69">
+        <v>0.11</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K70">
+        <v>0.01193467336683417</v>
+      </c>
+      <c r="L70">
+        <v>19</v>
+      </c>
+      <c r="M70">
+        <v>21</v>
+      </c>
+      <c r="N70">
+        <v>0.9</v>
+      </c>
+      <c r="O70">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K71">
+        <v>0.01041249499399279</v>
+      </c>
+      <c r="L71">
+        <v>52</v>
+      </c>
+      <c r="M71">
+        <v>54</v>
+      </c>
+      <c r="N71">
+        <v>0.96</v>
+      </c>
+      <c r="O71">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K67">
-        <v>0.005121638924455826</v>
-      </c>
-      <c r="L67">
-        <v>8</v>
-      </c>
-      <c r="M67">
-        <v>10</v>
-      </c>
-      <c r="N67">
-        <v>0.8</v>
-      </c>
-      <c r="O67">
-        <v>0.2</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>1554</v>
+      <c r="K72">
+        <v>0.01039861351819757</v>
+      </c>
+      <c r="L72">
+        <v>24</v>
+      </c>
+      <c r="M72">
+        <v>25</v>
+      </c>
+      <c r="N72">
+        <v>0.96</v>
+      </c>
+      <c r="O72">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K73">
+        <v>0.00966183574879227</v>
+      </c>
+      <c r="L73">
+        <v>30</v>
+      </c>
+      <c r="M73">
+        <v>32</v>
+      </c>
+      <c r="N73">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O73">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K74">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="L74">
+        <v>22</v>
+      </c>
+      <c r="M74">
+        <v>25</v>
+      </c>
+      <c r="N74">
+        <v>0.88</v>
+      </c>
+      <c r="O74">
+        <v>0.12</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K75">
+        <v>0.008548983364140481</v>
+      </c>
+      <c r="L75">
+        <v>37</v>
+      </c>
+      <c r="M75">
+        <v>37</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K76">
+        <v>0.007558139534883721</v>
+      </c>
+      <c r="L76">
+        <v>39</v>
+      </c>
+      <c r="M76">
+        <v>44</v>
+      </c>
+      <c r="N76">
+        <v>0.89</v>
+      </c>
+      <c r="O76">
+        <v>0.11</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K77">
+        <v>0.006265664160401002</v>
+      </c>
+      <c r="L77">
+        <v>15</v>
+      </c>
+      <c r="M77">
+        <v>15</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K78">
+        <v>0.005003126954346467</v>
+      </c>
+      <c r="L78">
+        <v>16</v>
+      </c>
+      <c r="M78">
+        <v>19</v>
+      </c>
+      <c r="N78">
+        <v>0.84</v>
+      </c>
+      <c r="O78">
+        <v>0.16</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>3182</v>
       </c>
     </row>
   </sheetData>
